--- a/docs/R'Gram Scrum Document.xlsx
+++ b/docs/R'Gram Scrum Document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4dd2ee9f9b1c302/Desktop/everything together-MSI/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\OneDrive\Desktop\everything together-MSI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C726C5DC-8DEC-4BF9-A018-B6C12021E405}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4531050C-E3A1-45C9-930B-8E2858C128B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13758,7 +13758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13821,7 +13821,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/R'Gram Scrum Document.xlsx
+++ b/docs/R'Gram Scrum Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\OneDrive\Desktop\everything together-MSI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4531050C-E3A1-45C9-930B-8E2858C128B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0513A0A-65A9-4AFD-B33D-A54F5DABC561}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13758,7 +13758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13826,12 +13826,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13851,7 +13851,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13892,7 +13892,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
